--- a/insitu/30mv/insitu-30mv-Layer0-Test1.xlsx
+++ b/insitu/30mv/insitu-30mv-Layer0-Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/insitu/30mv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F49AF4A-685F-3243-A386-8F8875F9D4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AD1848-7D4A-8048-A316-51978C544363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,10 +794,10 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
